--- a/biology/Médecine/Józef_Dietl/Józef_Dietl.xlsx
+++ b/biology/Médecine/Józef_Dietl/Józef_Dietl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>J%C3%B3zef_Dietl</t>
+          <t>Józef_Dietl</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Józef Dietl, né le 24 janvier 1804 à Podbuże près de Sambor et mort le 18 janvier 1878 à Cracovie, est un médecin austro - polonais né d'un père autrichien et d'une mère polonaise. Il étudie la médecine à Lviv et à Vienne.  Il est un pionnier de la Balnéothérapie et professeur à l’Université Jagellonne, élu recteur en 1861.  Dietl décrit la maladie du rein connue sous le nom de "crise de Dietl" ainsi que son traitement. 
-Dietl est connu mondialement comme un "réformeur de la médecine" pour avoir démontré de manière expérimentale la nuisibilité de la saignée[1],[2].
+Dietl est connu mondialement comme un "réformeur de la médecine" pour avoir démontré de manière expérimentale la nuisibilité de la saignée,.
 </t>
         </is>
       </c>
